--- a/biology/Médecine/Anneau_de_Schatzki/Anneau_de_Schatzki.xlsx
+++ b/biology/Médecine/Anneau_de_Schatzki/Anneau_de_Schatzki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’anneau de Schatzki est un épaississement muqueux ou musculaire de la partie inférieure de l'œsophage.
 La maladie est favorisée par le reflux gastro-œsophagien et la hernie hiatale. Elle est bénigne et le plus souvent asymptomatique, ou bien provoque une dysphagie occasionnelle. 
@@ -512,7 +524,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic est posé par la gastroscopie ou le transit baryté de l'œsophage.
 </t>
@@ -543,7 +557,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les formes symptomatiques seront traitées en première intention par IPP. Si le traitement médicamenteux ne suffit pas, une ou plusieurs dilatations œsophagiennes voire une incision de l'anneau peuvent s'avérer nécessaires.
 </t>
